--- a/auto_api/report.xlsx
+++ b/auto_api/report.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="69">
   <si>
     <t>测试报告总概况</t>
   </si>
@@ -23,46 +23,46 @@
     <t>测试概括</t>
   </si>
   <si>
+    <t>分数</t>
+  </si>
+  <si>
     <t>脚本语言</t>
   </si>
   <si>
-    <t>分数</t>
+    <t>接口测试</t>
+  </si>
+  <si>
+    <t>测试日期</t>
+  </si>
+  <si>
+    <t>项目名称</t>
+  </si>
+  <si>
+    <t>v1.0</t>
+  </si>
+  <si>
+    <t>通过总数</t>
   </si>
   <si>
     <t>WEB</t>
   </si>
   <si>
+    <t>接口总数</t>
+  </si>
+  <si>
+    <t>接口版本</t>
+  </si>
+  <si>
+    <t>失败总数</t>
+  </si>
+  <si>
+    <t>测试网络</t>
+  </si>
+  <si>
     <t>wifi</t>
   </si>
   <si>
-    <t>接口版本</t>
-  </si>
-  <si>
-    <t>通过总数</t>
-  </si>
-  <si>
-    <t>2017-08-28 15:06:43</t>
-  </si>
-  <si>
-    <t>测试日期</t>
-  </si>
-  <si>
-    <t>失败总数</t>
-  </si>
-  <si>
-    <t>项目名称</t>
-  </si>
-  <si>
-    <t>接口测试</t>
-  </si>
-  <si>
-    <t>v1.0</t>
-  </si>
-  <si>
-    <t>测试网络</t>
-  </si>
-  <si>
-    <t>接口总数</t>
+    <t>2017-09-04 17:58:03</t>
   </si>
   <si>
     <t>60</t>
@@ -71,73 +71,76 @@
     <t>测试详情</t>
   </si>
   <si>
+    <t>预期值</t>
+  </si>
+  <si>
+    <t>测试结果</t>
+  </si>
+  <si>
+    <t>接口名称</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>参数</t>
+  </si>
+  <si>
+    <t>登录用户UID</t>
+  </si>
+  <si>
     <t>请求方式</t>
   </si>
   <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>用例ID</t>
+  </si>
+  <si>
     <t>实际值</t>
   </si>
   <si>
-    <t>参数</t>
-  </si>
-  <si>
     <t>用例描述</t>
   </si>
   <si>
-    <t>预期值</t>
-  </si>
-  <si>
-    <t>用例ID</t>
-  </si>
-  <si>
-    <t>接口名称</t>
-  </si>
-  <si>
-    <t>URL</t>
-  </si>
-  <si>
-    <t>测试结果</t>
-  </si>
-  <si>
-    <t>登录用户UID</t>
-  </si>
-  <si>
-    <t>备注</t>
+    <t>{'status': False, 'message': '消息不能为空', 'code': 202}</t>
+  </si>
+  <si>
+    <t>/chatnew/msg</t>
+  </si>
+  <si>
+    <t>发言</t>
+  </si>
+  <si>
+    <t>发言为空</t>
+  </si>
+  <si>
+    <t>test_msg_02</t>
+  </si>
+  <si>
+    <t>{'isAdminPrivateChat': '', 'guard_barrage': '', 'data': '', 'cid': 119398, 'color_barrage': ''}</t>
   </si>
   <si>
     <t>post</t>
   </si>
   <si>
-    <t>发言为空</t>
-  </si>
-  <si>
-    <t>test_msg_02</t>
-  </si>
-  <si>
-    <t>{'message': '消息不能为空', 'code': 202, 'status': False}</t>
-  </si>
-  <si>
-    <t>{'color_barrage': '', 'guard_barrage': '', 'isAdminPrivateChat': '', 'cid': 119398, 'data': ''}</t>
-  </si>
-  <si>
-    <t>发言</t>
-  </si>
-  <si>
-    <t>/chatnew/msg</t>
+    <t>{'status': True, 'data': {'time': 1504519085, 'chat_code': 100001, 'msg_content': {'medal_lv': 0, 'fan_lv_new': 0, 'is_guard': 0, 'note': '粉丝', 'fan_name': '粉丝', 'is_guard_barrage': 0, 'lid': 0, 'guard_barrage': {}, 'cid': '119398', 'is_zc': 0, 'is_fg': 0, 'medal': False, 'is_mobile': 0, 'uid': '4998', 'color': {'color_mobile': False}, 'content': '测试弹幕', 'auth_mobile': 1, 'channel_id': '119398', 'is_zb': 0, 'badgeinfo': [], 'room_num': '787403', 'is_admin_privatechat': 0, 'username': 'hm_1564387', 'fan_lv': 0, 'uname': '', 'head_img': '/static/web/images/default_headimg/default_head_normal.jpg', 'count_num': -1, 'platform_fan': [], 'zb_name': 'hm_1059080', 'guardInfo': {}}, 'new_msg': [], 'msg_type': 'msg'}, 'code': 200}</t>
   </si>
   <si>
     <t>普通用户弹幕</t>
   </si>
   <si>
+    <t>{'data': {'chat_code': 100001, 'msg_type': 'msg'}, 'code': 200}</t>
+  </si>
+  <si>
     <t>test_msg_03</t>
   </si>
   <si>
-    <t>{'code': 200, 'data': {'chat_code': 100001, 'msg_type': 'msg'}}</t>
-  </si>
-  <si>
-    <t>{'color_barrage': '', 'guard_barrage': '', 'isAdminPrivateChat': '', 'cid': 119398, 'data': '测试弹幕'}</t>
-  </si>
-  <si>
-    <t>{'code': 200, 'status': True, 'data': {'time': 1503904018, 'chat_code': 100001, 'msg_content': {'is_zc': 0, 'fan_lv': 0, 'channel_id': '119398', 'lid': 0, 'color': {'color_mobile': False}, 'medal': False, 'guardInfo': {}, 'guard_barrage': {}, 'is_guard_barrage': 0, 'note': '粉丝', 'is_mobile': 0, 'room_num': '787403', 'uname': '', 'is_guard': 0, 'platform_fan': [], 'is_admin_privatechat': 0, 'badgeinfo': [], 'fan_name': '粉丝', 'head_img': '/static/web/images/default_headimg/default_head_normal.jpg', 'auth_mobile': 1, 'is_zb': 0, 'count_num': -1, 'is_fg': 0, 'uid': '4998', 'username': 'hm_1564387', 'zb_name': 'hm_1059080', 'cid': '119398', 'fan_lv_new': 0, 'medal_lv': 0, 'content': '测试弹幕'}, 'msg_type': 'msg', 'new_msg': []}}</t>
+    <t>{'isAdminPrivateChat': '', 'guard_barrage': '', 'data': '测试弹幕', 'cid': 119398, 'color_barrage': ''}</t>
+  </si>
+  <si>
+    <t>{'status': False, 'message': '您的发言已超出字符限制了~', 'code': 206}</t>
   </si>
   <si>
     <t>字数限制</t>
@@ -146,28 +149,28 @@
     <t>test_msg_04</t>
   </si>
   <si>
-    <t>{'message': '您的发言已超出字符限制了~', 'code': 206, 'status': False}</t>
-  </si>
-  <si>
-    <t>{'color_barrage': '', 'guard_barrage': '', 'isAdminPrivateChat': '', 'cid': 119398, 'data': '01234567890123456789012345678901234567890123456789'}</t>
+    <t>{'isAdminPrivateChat': '', 'guard_barrage': '', 'data': '01234567890123456789012345678901234567890123456789', 'cid': 119398, 'color_barrage': ''}</t>
+  </si>
+  <si>
+    <t>{'status': True, 'data': {'time': 1504519085, 'chat_code': 100001, 'msg_content': {'medal_lv': 0, 'fan_lv_new': 0, 'is_guard': 0, 'note': '粉丝', 'fan_name': '粉丝', 'is_guard_barrage': 0, 'lid': 0, 'guard_barrage': {}, 'cid': '119398', 'is_zc': 0, 'is_fg': 0, 'medal': False, 'is_mobile': 0, 'uid': '5000', 'color': {'color_mobile': False}, 'content': '火猫超管', 'auth_mobile': 1, 'channel_id': '119398', 'is_zb': 0, 'badgeinfo': [], 'room_num': '787403', 'is_admin_privatechat': 0, 'username': 'hm_5266944', 'fan_lv': 0, 'uname': '', 'head_img': '/static/web/images/default_headimg/default_head_normal.jpg', 'count_num': -1, 'platform_fan': [], 'zb_name': 'hm_1059080', 'guardInfo': {}}, 'new_msg': [], 'msg_type': 'msg'}, 'code': 200}</t>
   </si>
   <si>
     <t>敏感词</t>
   </si>
   <si>
-    <t>message not in{'code': 200, 'status': True, 'data': {'time': 1503904017, 'chat_code': 100001, 'msg_content': {'is_zc': 0, 'fan_lv': 0, 'channel_id': '119398', 'lid': 0, 'color': {'color_mobile': False}, 'medal': False, 'guardInfo': {}, 'guard_barrage': {}, 'is_guard_barrage': 0, 'note': '粉丝', 'is_mobile': 0, 'room_num': '787403', 'uname': '', 'is_guard': 0, 'platform_fan': [], 'is_admin_privatechat': 0, 'badgeinfo': [], 'fan_name': '粉丝', 'head_img': '/static/web/images/default_headimg/default_head_normal.jpg', 'auth_mobile': 1, 'is_zb': 0, 'count_num': -1, 'is_fg': 0, 'uid': '5000', 'username': 'hm_5266944', 'zb_name': 'hm_1059080', 'cid': '119398', 'fan_lv_new': 0, 'medal_lv': 0, 'content': '火猫超管'}, 'msg_type': 'msg', 'new_msg': []}}</t>
+    <t>{'status': False, 'message': '敏感词', 'code': 206}</t>
+  </si>
+  <si>
+    <t>value: 'False' != 'True'</t>
   </si>
   <si>
     <t>test_msg_05</t>
   </si>
   <si>
-    <t>{'message': '敏感词', 'code': 206, 'status': False}</t>
-  </si>
-  <si>
-    <t>{'color_barrage': '', 'guard_barrage': '', 'isAdminPrivateChat': '', 'cid': 119398, 'data': '火猫超管'}</t>
-  </si>
-  <si>
-    <t>{'code': 200, 'status': True, 'data': {'time': 1503904017, 'chat_code': 100001, 'msg_content': {'is_zc': 0, 'fan_lv': 0, 'channel_id': '119398', 'lid': 0, 'color': {'color_mobile': False}, 'medal': False, 'guardInfo': {}, 'guard_barrage': {}, 'is_guard_barrage': 0, 'note': '粉丝', 'is_mobile': 0, 'room_num': '787403', 'uname': '', 'is_guard': 0, 'platform_fan': [], 'is_admin_privatechat': 0, 'badgeinfo': [], 'fan_name': '粉丝', 'head_img': '/static/web/images/default_headimg/default_head_normal.jpg', 'auth_mobile': 1, 'is_zb': 0, 'count_num': -1, 'is_fg': 0, 'uid': '5000', 'username': 'hm_5266944', 'zb_name': 'hm_1059080', 'cid': '119398', 'fan_lv_new': 0, 'medal_lv': 0, 'content': '火猫超管'}, 'msg_type': 'msg', 'new_msg': []}}</t>
+    <t>{'isAdminPrivateChat': '', 'guard_barrage': '', 'data': '火猫超管', 'cid': 119398, 'color_barrage': ''}</t>
+  </si>
+  <si>
+    <t>{'status': False, 'message': '你发言太快！', 'code': 204}</t>
   </si>
   <si>
     <t>发言间隔</t>
@@ -176,7 +179,7 @@
     <t>test_msg_06</t>
   </si>
   <si>
-    <t>{'message': '你发言太快！', 'code': 204, 'status': False}</t>
+    <t>{'status': False, 'message': '绑定手机号即可发言', 'code': 2031}</t>
   </si>
   <si>
     <t>未绑定手机</t>
@@ -185,7 +188,7 @@
     <t>test_msg_07</t>
   </si>
   <si>
-    <t>{'message': '绑定手机号即可发言', 'code': 2031, 'status': False}</t>
+    <t>{'status': False, 'message': '您刚来,还得2分钟才能发言~', 'code': 2018}</t>
   </si>
   <si>
     <t>注册时间</t>
@@ -194,55 +197,22 @@
     <t>test_msg_08</t>
   </si>
   <si>
-    <t>{'message': '您刚来,还得2分钟才能发言~', 'code': 2018, 'status': False}</t>
-  </si>
-  <si>
-    <t>{'color_barrage': '', 'guard_barrage': '', 'isAdminPrivateChat': '', 'cid': 119399, 'data': '测试弹幕'}</t>
+    <t>{'isAdminPrivateChat': '', 'guard_barrage': '', 'data': '测试弹幕', 'cid': 119399, 'color_barrage': ''}</t>
+  </si>
+  <si>
+    <t>{'status': True, 'data': {'time': 1504519085, 'chat_code': 100001, 'msg_content': {'medal_lv': 0, 'fan_lv_new': 0, 'is_guard': 0, 'note': '粉丝', 'fan_name': '粉丝', 'is_guard_barrage': 0, 'lid': 0, 'guard_barrage': {}, 'cid': '119398', 'is_zc': 0, 'is_fg': 0, 'medal': False, 'is_mobile': 0, 'uid': '4973', 'color': {'color_mobile': False}, 'content': '测试弹幕', 'auth_mobile': 1, 'channel_id': '119398', 'is_zb': 1, 'badgeinfo': [], 'room_num': '787403', 'is_admin_privatechat': 0, 'username': 'hm_1059080', 'fan_lv': 0, 'uname': '', 'head_img': '/static/web/images/default_headimg/default_head_normal.jpg', 'count_num': -1, 'platform_fan': [], 'zb_name': 'hm_1059080', 'guardInfo': {}}, 'new_msg': [], 'msg_type': 'msg'}, 'code': 200}</t>
   </si>
   <si>
     <t>房主</t>
   </si>
   <si>
+    <t>{'data': {'chat_code': 100001, 'msg_content': {'is_zb': 1}, 'msg_type': 'msg'}, 'code': 200}</t>
+  </si>
+  <si>
     <t>test_msg_09</t>
   </si>
   <si>
-    <t>{'code': 200, 'data': {'chat_code': 100001, 'msg_content': {'is_zb': 1}, 'msg_type': 'msg'}}</t>
-  </si>
-  <si>
-    <t>{'code': 200, 'status': True, 'data': {'time': 1503904017, 'chat_code': 100001, 'msg_content': {'is_zc': 0, 'fan_lv': 0, 'channel_id': '119398', 'lid': 0, 'color': {'color_mobile': False}, 'medal': False, 'guardInfo': {}, 'guard_barrage': {}, 'is_guard_barrage': 0, 'note': '粉丝', 'is_mobile': 0, 'room_num': '787403', 'uname': '', 'is_guard': 0, 'platform_fan': [], 'is_admin_privatechat': 0, 'badgeinfo': [], 'fan_name': '粉丝', 'head_img': '/static/web/images/default_headimg/default_head_normal.jpg', 'auth_mobile': 1, 'is_zb': 1, 'count_num': -1, 'is_fg': 0, 'uid': '4973', 'username': 'hm_1059080', 'zb_name': 'hm_1059080', 'cid': '119398', 'fan_lv_new': 0, 'medal_lv': 0, 'content': '测试弹幕'}, 'msg_type': 'msg', 'new_msg': []}}</t>
-  </si>
-  <si>
-    <t>弹幕卡足，余额足时，发言彩色弹幕</t>
-  </si>
-  <si>
-    <t>test_msg_11</t>
-  </si>
-  <si>
-    <t>{'code': 200, 'data': {'chat_code': 100001, 'msg_content': {'color': {'color_mobile': True}}, 'msg_type': 'msg'}}</t>
-  </si>
-  <si>
-    <t>{'color_barrage': 1, 'guard_barrage': '', 'isAdminPrivateChat': '', 'cid': 119398, 'data': '测试弹幕'}</t>
-  </si>
-  <si>
-    <t>{'code': 200, 'status': True, 'data': {'time': 1503904018, 'chat_code': 100001, 'msg_content': {'is_zc': 0, 'fan_lv': 0, 'channel_id': '119398', 'lid': 0, 'color': {'is_prop': 1, 'nickname': 'hm_8236797', 'color_css': '#e24040', 'color_mobile': True}, 'medal': False, 'guardInfo': {}, 'guard_barrage': {}, 'is_guard_barrage': 0, 'note': '粉丝', 'is_mobile': 0, 'room_num': '787403', 'uname': '', 'is_guard': 0, 'platform_fan': [], 'is_admin_privatechat': 0, 'badgeinfo': [], 'fan_name': '粉丝', 'head_img': '/static/web/images/default_headimg/default_head_normal.jpg', 'auth_mobile': 1, 'is_zb': 0, 'count_num': -1, 'is_fg': 0, 'uid': '5003', 'username': 'hm_8236797', 'zb_name': 'hm_1059080', 'cid': '119398', 'fan_lv_new': 0, 'medal_lv': 0, 'content': '测试弹幕'}, 'msg_type': 'msg', 'new_msg': []}}</t>
-  </si>
-  <si>
-    <t>弹幕卡足，余额不足时，发言彩色弹幕</t>
-  </si>
-  <si>
-    <t>test_msg_12</t>
-  </si>
-  <si>
-    <t>{'code': 200, 'status': True, 'data': {'time': 1503904018, 'chat_code': 100001, 'msg_content': {'is_zc': 0, 'fan_lv': 0, 'channel_id': '119398', 'lid': 0, 'color': {'is_prop': 1, 'nickname': 'hm_3615923', 'color_css': '#e24040', 'color_mobile': True}, 'medal': False, 'guardInfo': {}, 'guard_barrage': {}, 'is_guard_barrage': 0, 'note': '粉丝', 'is_mobile': 0, 'room_num': '787403', 'uname': '', 'is_guard': 0, 'platform_fan': [], 'is_admin_privatechat': 0, 'badgeinfo': [], 'fan_name': '粉丝', 'head_img': '/static/web/images/default_headimg/default_head_normal.jpg', 'auth_mobile': 1, 'is_zb': 0, 'count_num': -1, 'is_fg': 0, 'uid': '5004', 'username': 'hm_3615923', 'zb_name': 'hm_1059080', 'cid': '119398', 'fan_lv_new': 0, 'medal_lv': 0, 'content': '测试弹幕'}, 'msg_type': 'msg', 'new_msg': []}}</t>
-  </si>
-  <si>
-    <t>弹幕卡不足，余额足时，发言彩色弹幕</t>
-  </si>
-  <si>
-    <t>test_msg_13</t>
-  </si>
-  <si>
-    <t>{'code': 200, 'status': True, 'data': {'time': 1503904018, 'chat_code': 100001, 'msg_content': {'is_zc': 0, 'fan_lv': 0, 'channel_id': '119398', 'lid': 0, 'color': {'is_prop': 0, 'nickname': 'hm_5059443', 'color_css': '#e24040', 'color_mobile': True}, 'medal': False, 'guardInfo': {}, 'guard_barrage': {}, 'is_guard_barrage': 0, 'note': '粉丝', 'is_mobile': 0, 'room_num': '787403', 'uname': '', 'is_guard': 0, 'platform_fan': [], 'is_admin_privatechat': 0, 'badgeinfo': [], 'fan_name': '粉丝', 'head_img': '/static/web/images/default_headimg/default_head_normal.jpg', 'auth_mobile': 1, 'is_zb': 0, 'count_num': -1, 'is_fg': 0, 'uid': '5005', 'username': 'hm_5059443', 'zb_name': 'hm_1059080', 'cid': '119398', 'fan_lv_new': 0, 'medal_lv': 0, 'content': '测试弹幕'}, 'msg_type': 'msg', 'new_msg': []}}</t>
+    <t>{'status': False, 'message': '余额不足', 'code': 2032}</t>
   </si>
   <si>
     <t>弹幕卡不足，余额不足时，发言彩色弹幕</t>
@@ -251,16 +221,7 @@
     <t>test_msg_14</t>
   </si>
   <si>
-    <t>{'message': '余额不足', 'code': 2032, 'status': False}</t>
-  </si>
-  <si>
-    <t>弹幕卡消耗顺序</t>
-  </si>
-  <si>
-    <t>test_msg_15</t>
-  </si>
-  <si>
-    <t>{'code': 200, 'status': True, 'data': {'time': 1503904018, 'chat_code': 100001, 'msg_content': {'is_zc': 0, 'fan_lv': 0, 'channel_id': '119398', 'lid': 0, 'color': {'is_prop': 1, 'nickname': 'hm_1344351', 'color_css': '#e24040', 'color_mobile': True}, 'medal': False, 'guardInfo': {}, 'guard_barrage': {}, 'is_guard_barrage': 0, 'note': '粉丝', 'is_mobile': 0, 'room_num': '787403', 'uname': '', 'is_guard': 0, 'platform_fan': [], 'is_admin_privatechat': 0, 'badgeinfo': [], 'fan_name': '粉丝', 'head_img': '/static/web/images/default_headimg/default_head_normal.jpg', 'auth_mobile': 1, 'is_zb': 0, 'count_num': -1, 'is_fg': 0, 'uid': '5007', 'username': 'hm_1344351', 'zb_name': 'hm_1059080', 'cid': '119398', 'fan_lv_new': 0, 'medal_lv': 0, 'content': '测试弹幕'}, 'msg_type': 'msg', 'new_msg': []}}</t>
+    <t>{'isAdminPrivateChat': '', 'guard_barrage': '', 'data': '测试弹幕', 'cid': 119398, 'color_barrage': 1}</t>
   </si>
 </sst>
 </file>
@@ -400,7 +361,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>12</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
@@ -786,33 +747,33 @@
     </row>
     <row r="3" spans="1:5" ht="30" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D3" s="3">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="30" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4" s="3">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>16</v>
@@ -820,13 +781,13 @@
     </row>
     <row r="5" spans="1:5" ht="30" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D5" s="3">
         <v>1</v>
@@ -835,16 +796,16 @@
     </row>
     <row r="6" spans="1:5" ht="30" customHeight="1">
       <c r="A6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="D6" s="3" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E6" s="3"/>
     </row>
@@ -861,7 +822,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -890,66 +851,66 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>18</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>25</v>
       </c>
       <c r="F2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="K2" s="3" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" t="s">
         <v>31</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" t="s">
         <v>30</v>
-      </c>
-      <c r="C3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" t="s">
-        <v>35</v>
       </c>
       <c r="F3">
         <v>4997</v>
       </c>
       <c r="G3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J3" t="b">
         <v>1</v>
@@ -957,31 +918,31 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" t="s">
         <v>37</v>
       </c>
-      <c r="B4" t="s">
-        <v>36</v>
-      </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E4" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F4">
         <v>4998</v>
       </c>
       <c r="G4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H4" t="s">
         <v>38</v>
       </c>
       <c r="I4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="J4" t="b">
         <v>1</v>
@@ -989,19 +950,19 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" t="s">
         <v>42</v>
       </c>
-      <c r="B5" t="s">
-        <v>41</v>
-      </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E5" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F5">
         <v>4999</v>
@@ -1010,10 +971,10 @@
         <v>44</v>
       </c>
       <c r="H5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J5" t="b">
         <v>1</v>
@@ -1021,66 +982,66 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F6">
         <v>5000</v>
       </c>
       <c r="G6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="J6" t="b">
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" t="s">
         <v>52</v>
       </c>
-      <c r="B7" t="s">
-        <v>51</v>
-      </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F7">
         <v>5001</v>
       </c>
       <c r="G7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J7" t="b">
         <v>1</v>
@@ -1088,31 +1049,31 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" t="s">
         <v>55</v>
       </c>
-      <c r="B8" t="s">
-        <v>54</v>
-      </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E8" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F8">
         <v>5017</v>
       </c>
       <c r="G8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J8" t="b">
         <v>1</v>
@@ -1120,19 +1081,19 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" t="s">
         <v>58</v>
       </c>
-      <c r="B9" t="s">
-        <v>57</v>
-      </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E9" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F9">
         <v>5002</v>
@@ -1141,10 +1102,10 @@
         <v>60</v>
       </c>
       <c r="H9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J9" t="b">
         <v>1</v>
@@ -1152,31 +1113,31 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" t="s">
         <v>62</v>
       </c>
-      <c r="B10" t="s">
-        <v>61</v>
-      </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E10" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F10">
         <v>4973</v>
       </c>
       <c r="G10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H10" t="s">
         <v>63</v>
       </c>
       <c r="I10" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="J10" t="b">
         <v>1</v>
@@ -1184,161 +1145,33 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" t="s">
         <v>66</v>
       </c>
-      <c r="B11" t="s">
-        <v>65</v>
-      </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E11" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F11">
-        <v>5003</v>
+        <v>5006</v>
       </c>
       <c r="G11" t="s">
         <v>68</v>
       </c>
       <c r="H11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I11" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="J11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" t="s">
-        <v>71</v>
-      </c>
-      <c r="B12" t="s">
-        <v>70</v>
-      </c>
-      <c r="C12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F12">
-        <v>5004</v>
-      </c>
-      <c r="G12" t="s">
-        <v>68</v>
-      </c>
-      <c r="H12" t="s">
-        <v>67</v>
-      </c>
-      <c r="I12" t="s">
-        <v>72</v>
-      </c>
-      <c r="J12" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" t="s">
-        <v>74</v>
-      </c>
-      <c r="B13" t="s">
-        <v>73</v>
-      </c>
-      <c r="C13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" t="s">
-        <v>35</v>
-      </c>
-      <c r="F13">
-        <v>5005</v>
-      </c>
-      <c r="G13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H13" t="s">
-        <v>67</v>
-      </c>
-      <c r="I13" t="s">
-        <v>75</v>
-      </c>
-      <c r="J13" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" t="s">
-        <v>77</v>
-      </c>
-      <c r="B14" t="s">
-        <v>76</v>
-      </c>
-      <c r="C14" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" t="s">
-        <v>35</v>
-      </c>
-      <c r="F14">
-        <v>5006</v>
-      </c>
-      <c r="G14" t="s">
-        <v>68</v>
-      </c>
-      <c r="H14" t="s">
-        <v>78</v>
-      </c>
-      <c r="I14" t="s">
-        <v>78</v>
-      </c>
-      <c r="J14" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" t="s">
-        <v>80</v>
-      </c>
-      <c r="B15" t="s">
-        <v>79</v>
-      </c>
-      <c r="C15" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" t="s">
-        <v>35</v>
-      </c>
-      <c r="F15">
-        <v>5007</v>
-      </c>
-      <c r="G15" t="s">
-        <v>68</v>
-      </c>
-      <c r="H15" t="s">
-        <v>67</v>
-      </c>
-      <c r="I15" t="s">
-        <v>81</v>
-      </c>
-      <c r="J15" t="b">
         <v>1</v>
       </c>
     </row>

--- a/auto_api/report.xlsx
+++ b/auto_api/report.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="74">
   <si>
     <t>测试报告总概况</t>
   </si>
@@ -23,205 +23,220 @@
     <t>测试概括</t>
   </si>
   <si>
+    <t>项目名称</t>
+  </si>
+  <si>
+    <t>脚本语言</t>
+  </si>
+  <si>
+    <t>接口版本</t>
+  </si>
+  <si>
+    <t>接口测试</t>
+  </si>
+  <si>
+    <t>测试网络</t>
+  </si>
+  <si>
     <t>分数</t>
   </si>
   <si>
-    <t>脚本语言</t>
-  </si>
-  <si>
-    <t>接口测试</t>
+    <t>接口总数</t>
+  </si>
+  <si>
+    <t>wifi</t>
+  </si>
+  <si>
+    <t>v1.0</t>
+  </si>
+  <si>
+    <t>2017-09-12 13:51:28</t>
+  </si>
+  <si>
+    <t>通过总数</t>
   </si>
   <si>
     <t>测试日期</t>
   </si>
   <si>
-    <t>项目名称</t>
-  </si>
-  <si>
-    <t>v1.0</t>
-  </si>
-  <si>
-    <t>通过总数</t>
+    <t>失败总数</t>
   </si>
   <si>
     <t>WEB</t>
   </si>
   <si>
-    <t>接口总数</t>
-  </si>
-  <si>
-    <t>接口版本</t>
-  </si>
-  <si>
-    <t>失败总数</t>
-  </si>
-  <si>
-    <t>测试网络</t>
-  </si>
-  <si>
-    <t>wifi</t>
-  </si>
-  <si>
-    <t>2017-09-04 17:58:03</t>
-  </si>
-  <si>
     <t>60</t>
   </si>
   <si>
     <t>测试详情</t>
   </si>
   <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>用例ID</t>
+  </si>
+  <si>
+    <t>接口名称</t>
+  </si>
+  <si>
+    <t>请求方式</t>
+  </si>
+  <si>
+    <t>测试结果</t>
+  </si>
+  <si>
+    <t>实际值</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>登录用户UID</t>
+  </si>
+  <si>
+    <t>用例描述</t>
+  </si>
+  <si>
     <t>预期值</t>
   </si>
   <si>
-    <t>测试结果</t>
-  </si>
-  <si>
-    <t>接口名称</t>
-  </si>
-  <si>
-    <t>备注</t>
-  </si>
-  <si>
     <t>参数</t>
   </si>
   <si>
-    <t>登录用户UID</t>
-  </si>
-  <si>
-    <t>请求方式</t>
-  </si>
-  <si>
-    <t>URL</t>
-  </si>
-  <si>
-    <t>用例ID</t>
-  </si>
-  <si>
-    <t>实际值</t>
-  </si>
-  <si>
-    <t>用例描述</t>
-  </si>
-  <si>
-    <t>{'status': False, 'message': '消息不能为空', 'code': 202}</t>
-  </si>
-  <si>
-    <t>/chatnew/msg</t>
-  </si>
-  <si>
-    <t>发言</t>
-  </si>
-  <si>
-    <t>发言为空</t>
-  </si>
-  <si>
-    <t>test_msg_02</t>
-  </si>
-  <si>
-    <t>{'isAdminPrivateChat': '', 'guard_barrage': '', 'data': '', 'cid': 119398, 'color_barrage': ''}</t>
-  </si>
-  <si>
-    <t>post</t>
-  </si>
-  <si>
-    <t>{'status': True, 'data': {'time': 1504519085, 'chat_code': 100001, 'msg_content': {'medal_lv': 0, 'fan_lv_new': 0, 'is_guard': 0, 'note': '粉丝', 'fan_name': '粉丝', 'is_guard_barrage': 0, 'lid': 0, 'guard_barrage': {}, 'cid': '119398', 'is_zc': 0, 'is_fg': 0, 'medal': False, 'is_mobile': 0, 'uid': '4998', 'color': {'color_mobile': False}, 'content': '测试弹幕', 'auth_mobile': 1, 'channel_id': '119398', 'is_zb': 0, 'badgeinfo': [], 'room_num': '787403', 'is_admin_privatechat': 0, 'username': 'hm_1564387', 'fan_lv': 0, 'uname': '', 'head_img': '/static/web/images/default_headimg/default_head_normal.jpg', 'count_num': -1, 'platform_fan': [], 'zb_name': 'hm_1059080', 'guardInfo': {}}, 'new_msg': [], 'msg_type': 'msg'}, 'code': 200}</t>
-  </si>
-  <si>
-    <t>普通用户弹幕</t>
-  </si>
-  <si>
-    <t>{'data': {'chat_code': 100001, 'msg_type': 'msg'}, 'code': 200}</t>
-  </si>
-  <si>
-    <t>test_msg_03</t>
-  </si>
-  <si>
-    <t>{'isAdminPrivateChat': '', 'guard_barrage': '', 'data': '测试弹幕', 'cid': 119398, 'color_barrage': ''}</t>
-  </si>
-  <si>
-    <t>{'status': False, 'message': '您的发言已超出字符限制了~', 'code': 206}</t>
-  </si>
-  <si>
-    <t>字数限制</t>
-  </si>
-  <si>
-    <t>test_msg_04</t>
-  </si>
-  <si>
-    <t>{'isAdminPrivateChat': '', 'guard_barrage': '', 'data': '01234567890123456789012345678901234567890123456789', 'cid': 119398, 'color_barrage': ''}</t>
-  </si>
-  <si>
-    <t>{'status': True, 'data': {'time': 1504519085, 'chat_code': 100001, 'msg_content': {'medal_lv': 0, 'fan_lv_new': 0, 'is_guard': 0, 'note': '粉丝', 'fan_name': '粉丝', 'is_guard_barrage': 0, 'lid': 0, 'guard_barrage': {}, 'cid': '119398', 'is_zc': 0, 'is_fg': 0, 'medal': False, 'is_mobile': 0, 'uid': '5000', 'color': {'color_mobile': False}, 'content': '火猫超管', 'auth_mobile': 1, 'channel_id': '119398', 'is_zb': 0, 'badgeinfo': [], 'room_num': '787403', 'is_admin_privatechat': 0, 'username': 'hm_5266944', 'fan_lv': 0, 'uname': '', 'head_img': '/static/web/images/default_headimg/default_head_normal.jpg', 'count_num': -1, 'platform_fan': [], 'zb_name': 'hm_1059080', 'guardInfo': {}}, 'new_msg': [], 'msg_type': 'msg'}, 'code': 200}</t>
-  </si>
-  <si>
-    <t>敏感词</t>
-  </si>
-  <si>
-    <t>{'status': False, 'message': '敏感词', 'code': 206}</t>
-  </si>
-  <si>
-    <t>value: 'False' != 'True'</t>
-  </si>
-  <si>
-    <t>test_msg_05</t>
-  </si>
-  <si>
-    <t>{'isAdminPrivateChat': '', 'guard_barrage': '', 'data': '火猫超管', 'cid': 119398, 'color_barrage': ''}</t>
-  </si>
-  <si>
-    <t>{'status': False, 'message': '你发言太快！', 'code': 204}</t>
-  </si>
-  <si>
-    <t>发言间隔</t>
-  </si>
-  <si>
-    <t>test_msg_06</t>
-  </si>
-  <si>
-    <t>{'status': False, 'message': '绑定手机号即可发言', 'code': 2031}</t>
-  </si>
-  <si>
-    <t>未绑定手机</t>
-  </si>
-  <si>
-    <t>test_msg_07</t>
-  </si>
-  <si>
-    <t>{'status': False, 'message': '您刚来,还得2分钟才能发言~', 'code': 2018}</t>
-  </si>
-  <si>
-    <t>注册时间</t>
-  </si>
-  <si>
-    <t>test_msg_08</t>
-  </si>
-  <si>
-    <t>{'isAdminPrivateChat': '', 'guard_barrage': '', 'data': '测试弹幕', 'cid': 119399, 'color_barrage': ''}</t>
-  </si>
-  <si>
-    <t>{'status': True, 'data': {'time': 1504519085, 'chat_code': 100001, 'msg_content': {'medal_lv': 0, 'fan_lv_new': 0, 'is_guard': 0, 'note': '粉丝', 'fan_name': '粉丝', 'is_guard_barrage': 0, 'lid': 0, 'guard_barrage': {}, 'cid': '119398', 'is_zc': 0, 'is_fg': 0, 'medal': False, 'is_mobile': 0, 'uid': '4973', 'color': {'color_mobile': False}, 'content': '测试弹幕', 'auth_mobile': 1, 'channel_id': '119398', 'is_zb': 1, 'badgeinfo': [], 'room_num': '787403', 'is_admin_privatechat': 0, 'username': 'hm_1059080', 'fan_lv': 0, 'uname': '', 'head_img': '/static/web/images/default_headimg/default_head_normal.jpg', 'count_num': -1, 'platform_fan': [], 'zb_name': 'hm_1059080', 'guardInfo': {}}, 'new_msg': [], 'msg_type': 'msg'}, 'code': 200}</t>
-  </si>
-  <si>
-    <t>房主</t>
-  </si>
-  <si>
-    <t>{'data': {'chat_code': 100001, 'msg_content': {'is_zb': 1}, 'msg_type': 'msg'}, 'code': 200}</t>
-  </si>
-  <si>
-    <t>test_msg_09</t>
-  </si>
-  <si>
-    <t>{'status': False, 'message': '余额不足', 'code': 2032}</t>
-  </si>
-  <si>
-    <t>弹幕卡不足，余额不足时，发言彩色弹幕</t>
-  </si>
-  <si>
-    <t>test_msg_14</t>
-  </si>
-  <si>
-    <t>{'isAdminPrivateChat': '', 'guard_barrage': '', 'data': '测试弹幕', 'cid': 119398, 'color_barrage': 1}</t>
+    <t>get</t>
+  </si>
+  <si>
+    <t>用户赠送爱心不足</t>
+  </si>
+  <si>
+    <t>送礼</t>
+  </si>
+  <si>
+    <t>{'status': False, 'message': '您剩余的仙豆数量不足！', 'code': 118}</t>
+  </si>
+  <si>
+    <t>test_gift_01</t>
+  </si>
+  <si>
+    <t>/chatnew/sendGift</t>
+  </si>
+  <si>
+    <t>{'gift': 0, 'cid': 119465, 't_count': 1, 'isbag': 0}</t>
+  </si>
+  <si>
+    <t>礼物未启用</t>
+  </si>
+  <si>
+    <t>{'message': '礼物未激活', 'status': False, 'code': 211}</t>
+  </si>
+  <si>
+    <t>test_gift_03</t>
+  </si>
+  <si>
+    <t>{'gift': 47, 'cid': 119465, 't_count': 1, 'isbag': 0}</t>
+  </si>
+  <si>
+    <t>{'status': False, 'message': '礼物未激活', 'code': 211}</t>
+  </si>
+  <si>
+    <t>礼物已启用,无特效,收礼记录,送礼记录,粉丝值,赠送语,余额,判断</t>
+  </si>
+  <si>
+    <t>{'data': {'gift': {'send_count': '1', 'gift_id': '48', 'word': 'send', 'name': '脚本测试礼物48(勿修改)', 'resource_path': 'http://img.new.huomaotv.com.cn/'}}, 'code': 200, 'status': True}</t>
+  </si>
+  <si>
+    <t>test_gift_04</t>
+  </si>
+  <si>
+    <t>二次验证失败</t>
+  </si>
+  <si>
+    <t>{'gift': 48, 'cid': 119465, 't_count': 1, 'isbag': 0}</t>
+  </si>
+  <si>
+    <t>{'data': {'channel': {'screenType': '0', 'cid': '119465', 'platType': '1', 'name': '我的直播间', 'rid': '461811'}, 'extend': {'is_fg': '0', 'is_guard': '0', 'is_zb': '0'}, 'user': {'uid': '5339', 'level': '0', 'name': 'gift1504855091', 'avatar': '/static/web/images/default_headimg/default_head_normal.jpg'}, 'gift': {'gift_id': '48', 'before_count': '0', 'name': '脚本测试礼物48(勿修改)', 'resource_path': 'http://img.new.huomaotv.com.cn/', 'send_count': '1', 'current_count': '1', 'effect': '/upload/web/images/gift/20170911103520bIlSJhta.gif', 'word': 'send', 'img': '/upload/web/images/gift/20170911103520bIlSJhta.png'}, 'fans': {'rname': '我的直播间', 'level': '7', 'name': '粉丝', 'rid': '601810', 'color': '#84d1fd', 'avatar': '/static/web/images/default_headimg/default_head_normal.jpg', 'is_live': '', 'cid': '119462', 'gcmd': 'COS', 'zb_name': 'gift1504854872', 'gname': '英魂之刃'}, 'badge': [], 'platform': '1', 'anchor': {'uid': '5385', 'name': 'gift1505185802', 'avatar': '/static/web/images/default_headimg/default_head_normal.jpg'}, 'upgrade': []}, 'code': 200, 'status': True}</t>
+  </si>
+  <si>
+    <t>连击</t>
+  </si>
+  <si>
+    <t>{'data': {'gift': {'repeat': {'img': ''}, 'before_count': '0', 'current_count': '1'}}, 'code': 200, 'status': True}</t>
+  </si>
+  <si>
+    <t>test_gift_05</t>
+  </si>
+  <si>
+    <t>{'gift': 49, 'cid': 119465, 't_count': 1, 'isbag': 0}</t>
+  </si>
+  <si>
+    <t>{'data': {'channel': {'screenType': '0', 'cid': '119465', 'platType': '1', 'name': '我的直播间', 'rid': '461811'}, 'extend': {'is_fg': '0', 'is_guard': '0', 'is_zb': '0'}, 'user': {'uid': '5340', 'level': '0', 'name': 'gift1504855093', 'avatar': '/static/web/images/default_headimg/default_head_normal.jpg'}, 'gift': {'gift_id': '49', 'before_count': '0', 'name': '脚本测试礼物49(勿修改)', 'resource_path': 'http://img.new.huomaotv.com.cn/', 'send_count': '1', 'repeat': {'img': '/upload/web/images/gift/20170911150646q3xGhLJP1.png'}, 'current_count': '1', 'effect': '/upload/web/images/gift/20170911150646q3xGhLJP.gif', 'word': '送了', 'img': '/upload/web/images/gift/20170911150646q3xGhLJP.png'}, 'fans': {'rname': '我的直播间', 'level': '6', 'name': '粉丝', 'rid': '601810', 'color': '#84d1fd', 'avatar': '/static/web/images/default_headimg/default_head_normal.jpg', 'is_live': '', 'cid': '119462', 'gcmd': 'COS', 'zb_name': 'gift1504854872', 'gname': '英魂之刃'}, 'badge': [], 'platform': '1', 'anchor': {'uid': '5385', 'name': 'gift1505185802', 'avatar': '/static/web/images/default_headimg/default_head_normal.jpg'}, 'upgrade': []}, 'code': 200, 'status': True}</t>
+  </si>
+  <si>
+    <t>霸屏特效,横幅</t>
+  </si>
+  <si>
+    <t>{'data': {'gift': {'screen_hf': {'time': '10'}, 'screen_effect': {'frame': {'time': '4', 'num': '38', 'height': '15960', 'img': ''}, 'effect': ''}}}, 'code': 200, 'status': True}</t>
+  </si>
+  <si>
+    <t>test_gift_06</t>
+  </si>
+  <si>
+    <t>{'gift': 49, 'cid': 119465, 't_count': 3, 'isbag': 0}</t>
+  </si>
+  <si>
+    <t>{'data': {'channel': {'screenType': '0', 'cid': '119465', 'platType': '1', 'name': '我的直播间', 'rid': '461811'}, 'extend': {'is_fg': '0', 'is_guard': '0', 'is_zb': '0'}, 'user': {'uid': '5341', 'level': '0', 'name': 'gift1504855094', 'avatar': '/static/web/images/default_headimg/default_head_normal.jpg'}, 'gift': {'gift_id': '49', 'before_count': '0', 'name': '脚本测试礼物49(勿修改)', 'screen_effect': {'frame': {'num': '38', 'time': '4', 'height': '15960', 'img': '/upload/web/images/gift/201709111635386eTYcilP.png'}, 'effect': '/upload/web/images/gift/201709111546056EcjO4G9.gif'}, 'resource_path': 'http://img.new.huomaotv.com.cn/', 'send_count': '3', 'screen_hf': {'time': '10', 'img': '/upload/web/images/gift/201709111546056EcjO4G9.png'}, 'current_count': '3', 'effect': '/upload/web/images/gift/20170911150646q3xGhLJP.gif', 'word': '送了', 'img': '/upload/web/images/gift/20170911150646q3xGhLJP.png'}, 'fans': {'rname': '', 'level': '0', 'name': '粉丝', 'rid': '461811', 'color': '', 'avatar': '', 'is_live': '0', 'cid': '119465', 'gcmd': '', 'zb_name': 'gift1505185802', 'gname': ''}, 'badge': [], 'platform': '1', 'anchor': {'uid': '5385', 'name': 'gift1505185802', 'avatar': '/static/web/images/default_headimg/default_head_normal.jpg'}, 'upgrade': []}, 'code': 200, 'status': True}</t>
+  </si>
+  <si>
+    <t>单房间弹幕横幅</t>
+  </si>
+  <si>
+    <t>{'data': {'gift': {'barrage': {'effect': '', 'img': ''}}}, 'code': 200, 'status': True}</t>
+  </si>
+  <si>
+    <t>test_gift_07</t>
+  </si>
+  <si>
+    <t>{'gift': 49, 'cid': 119465, 't_count': 5, 'isbag': 0}</t>
+  </si>
+  <si>
+    <t>{'data': {'channel': {'screenType': '0', 'cid': '119465', 'platType': '1', 'name': '我的直播间', 'rid': '461811'}, 'extend': {'is_fg': '0', 'is_guard': '0', 'is_zb': '0'}, 'user': {'uid': '5342', 'level': '0', 'name': 'gift1504855096', 'avatar': '/static/web/images/default_headimg/default_head_normal.jpg'}, 'gift': {'resource_path': 'http://img.new.huomaotv.com.cn/', 'name': '脚本测试礼物49(勿修改)', 'send_count': '5', 'barrage': {'effect': '/upload/web/images/gift/20170911163617T8625gri.gif', 'img': '/upload/web/images/gift/20170911163617T8625gri.png'}, 'screen_hf': {'time': '10', 'img': '/upload/web/images/gift/201709111546056EcjO4G9.png'}, 'current_count': '5', 'effect': '/upload/web/images/gift/20170911150646q3xGhLJP.gif', 'gift_id': '49', 'before_count': '0', 'word': '送了', 'screen_effect': {'frame': {'num': '38', 'time': '4', 'height': '15960', 'img': '/upload/web/images/gift/201709111635386eTYcilP.png'}, 'effect': '/upload/web/images/gift/201709111546056EcjO4G9.gif'}, 'img': '/upload/web/images/gift/20170911150646q3xGhLJP.png'}, 'fans': {'rname': '', 'level': '0', 'name': '粉丝', 'rid': '461811', 'color': '', 'avatar': '', 'is_live': '0', 'cid': '119465', 'gcmd': '', 'zb_name': 'gift1505185802', 'gname': ''}, 'badge': [], 'platform': '1', 'anchor': {'uid': '5385', 'name': 'gift1505185802', 'avatar': '/static/web/images/default_headimg/default_head_normal.jpg'}, 'upgrade': []}, 'code': 200, 'status': True}</t>
+  </si>
+  <si>
+    <t>全房间弹幕横幅, 有宝箱,有宝箱礼物</t>
+  </si>
+  <si>
+    <t>test_gift_08</t>
+  </si>
+  <si>
+    <t>{'gift': 50, 'cid': 119465, 't_count': 1, 'isbag': 0}</t>
+  </si>
+  <si>
+    <t>{'data': {'channel': {'screenType': '0', 'cid': '119465', 'platType': '1', 'name': '我的直播间', 'rid': '461811'}, 'extend': {'is_fg': '0', 'is_guard': '0', 'is_zb': '0'}, 'user': {'uid': '5343', 'level': '0', 'name': 'gift1504855097', 'avatar': '/static/web/images/default_headimg/default_head_normal.jpg'}, 'gift': {'gift_id': '50', 'before_count': '0', 'name': '脚本测试礼物50(勿修改)', 'resource_path': 'http://img.new.huomaotv.com.cn/', 'send_count': '1', 'barrage': {'effect': '/upload/web/images/gift/20170911170337xIgH3y21.gif', 'img': '/upload/web/images/gift/20170911170452JR2fd1A32.png'}, 'current_count': '1', 'effect': '/upload/web/images/gift/20170911170452JR2fd1A3.gif', 'word': '送了', 'img': '/upload/web/images/gift/20170911170452JR2fd1A3.png'}, 'fans': {'rname': '', 'level': '0', 'name': '粉丝', 'rid': '461811', 'color': '', 'avatar': '', 'is_live': '0', 'cid': '119465', 'gcmd': '', 'zb_name': 'gift1505185802', 'gname': ''}, 'badge': [], 'platform': '1', 'anchor': {'uid': '5385', 'name': 'gift1505185802', 'avatar': '/static/web/images/default_headimg/default_head_normal.jpg'}, 'upgrade': []}, 'code': 200, 'status': True}</t>
+  </si>
+  <si>
+    <t>送礼人为房主</t>
+  </si>
+  <si>
+    <t>{'message': '自己不能给自己送礼物', 'code': 219, 'status': False}</t>
+  </si>
+  <si>
+    <t>test_gift_11</t>
+  </si>
+  <si>
+    <t>{'status': False, 'message': '自己不能给自己送礼物', 'code': 219}</t>
+  </si>
+  <si>
+    <t>送礼人为房管</t>
+  </si>
+  <si>
+    <t>{'data': {'extend': {'is_fg': '1', 'is_guard': '0', 'is_zb': '0'}}, 'code': 200, 'status': True}</t>
+  </si>
+  <si>
+    <t>test_gift_12</t>
+  </si>
+  <si>
+    <t>{'data': {'channel': {'screenType': '0', 'cid': '119465', 'platType': '1', 'name': '我的直播间', 'rid': '461811'}, 'extend': {'is_fg': '1', 'is_guard': '0', 'is_zb': '0'}, 'user': {'uid': '5386', 'level': '0', 'name': 'gift1505185803', 'avatar': '/static/web/images/default_headimg/default_head_normal.jpg'}, 'gift': {'gift_id': '48', 'before_count': '1', 'name': '脚本测试礼物48(勿修改)', 'resource_path': 'http://img.new.huomaotv.com.cn/', 'send_count': '1', 'current_count': '2', 'effect': '/upload/web/images/gift/20170911103520bIlSJhta.gif', 'word': 'send', 'img': '/upload/web/images/gift/20170911103520bIlSJhta.png'}, 'fans': {'rname': '', 'level': '6', 'name': '粉丝', 'rid': '461811', 'color': '', 'avatar': '', 'is_live': '0', 'cid': '119465', 'gcmd': '', 'zb_name': 'gift1505185802', 'gname': ''}, 'badge': [], 'platform': '1', 'anchor': {'uid': '5385', 'name': 'gift1505185802', 'avatar': '/static/web/images/default_headimg/default_head_normal.jpg'}, 'upgrade': {'fans': {'type': '0', 'popup': '2'}}}, 'code': 200, 'status': True}</t>
   </si>
 </sst>
 </file>
@@ -361,10 +376,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -747,33 +762,33 @@
     </row>
     <row r="3" spans="1:5" ht="30" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D3" s="3">
         <v>9</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="30" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D4" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>16</v>
@@ -784,28 +799,28 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D5" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:5" ht="30" customHeight="1">
       <c r="A6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="D6" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E6" s="3"/>
     </row>
@@ -851,37 +866,37 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>28</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -889,28 +904,28 @@
         <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
         <v>31</v>
       </c>
       <c r="D3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3">
+        <v>5336</v>
+      </c>
+      <c r="G3" t="s">
         <v>35</v>
       </c>
-      <c r="E3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3">
-        <v>4997</v>
-      </c>
-      <c r="G3" t="s">
-        <v>34</v>
-      </c>
       <c r="H3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J3" t="b">
         <v>1</v>
@@ -918,31 +933,31 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
         <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F4">
-        <v>4998</v>
+        <v>5338</v>
       </c>
       <c r="G4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" t="s">
         <v>40</v>
-      </c>
-      <c r="H4" t="s">
-        <v>38</v>
-      </c>
-      <c r="I4" t="s">
-        <v>36</v>
       </c>
       <c r="J4" t="b">
         <v>1</v>
@@ -953,31 +968,31 @@
         <v>43</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
         <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F5">
-        <v>4999</v>
+        <v>5339</v>
       </c>
       <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" t="s">
+        <v>46</v>
+      </c>
+      <c r="J5" t="s">
         <v>44</v>
-      </c>
-      <c r="H5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I5" t="s">
-        <v>41</v>
-      </c>
-      <c r="J5" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -985,39 +1000,36 @@
         <v>49</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C6" t="s">
         <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F6">
-        <v>5000</v>
+        <v>5340</v>
       </c>
       <c r="G6" t="s">
         <v>50</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="J6" t="b">
-        <v>0</v>
-      </c>
-      <c r="K6" t="s">
-        <v>48</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B7" t="s">
         <v>52</v>
@@ -1026,22 +1038,22 @@
         <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F7">
-        <v>5001</v>
+        <v>5341</v>
       </c>
       <c r="G7" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="H7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I7" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="J7" t="b">
         <v>1</v>
@@ -1049,31 +1061,31 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C8" t="s">
         <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E8" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F8">
-        <v>5017</v>
+        <v>5342</v>
       </c>
       <c r="G8" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="H8" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="I8" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="J8" t="b">
         <v>1</v>
@@ -1081,63 +1093,63 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B9" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C9" t="s">
         <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E9" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F9">
-        <v>5002</v>
+        <v>5343</v>
       </c>
       <c r="G9" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="H9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I9" t="s">
-        <v>57</v>
-      </c>
-      <c r="J9" t="b">
-        <v>1</v>
+        <v>65</v>
+      </c>
+      <c r="J9" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B10" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C10" t="s">
         <v>31</v>
       </c>
       <c r="D10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10">
+        <v>5385</v>
+      </c>
+      <c r="G10" t="s">
         <v>35</v>
       </c>
-      <c r="E10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10">
-        <v>4973</v>
-      </c>
-      <c r="G10" t="s">
-        <v>40</v>
-      </c>
       <c r="H10" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="I10" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="J10" t="b">
         <v>1</v>
@@ -1145,31 +1157,31 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B11" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C11" t="s">
         <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E11" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F11">
-        <v>5006</v>
+        <v>5386</v>
       </c>
       <c r="G11" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="H11" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="I11" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="J11" t="b">
         <v>1</v>

--- a/auto_api/report.xlsx
+++ b/auto_api/report.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="67">
   <si>
     <t>测试报告总概况</t>
   </si>
@@ -23,46 +23,46 @@
     <t>测试概括</t>
   </si>
   <si>
+    <t>wifi</t>
+  </si>
+  <si>
+    <t>脚本语言</t>
+  </si>
+  <si>
+    <t>分数</t>
+  </si>
+  <si>
+    <t>v1.0</t>
+  </si>
+  <si>
+    <t>WEB</t>
+  </si>
+  <si>
+    <t>接口版本</t>
+  </si>
+  <si>
     <t>项目名称</t>
   </si>
   <si>
-    <t>脚本语言</t>
-  </si>
-  <si>
-    <t>接口版本</t>
+    <t>测试网络</t>
+  </si>
+  <si>
+    <t>测试日期</t>
   </si>
   <si>
     <t>接口测试</t>
   </si>
   <si>
-    <t>测试网络</t>
-  </si>
-  <si>
-    <t>分数</t>
+    <t>通过总数</t>
   </si>
   <si>
     <t>接口总数</t>
   </si>
   <si>
-    <t>wifi</t>
-  </si>
-  <si>
-    <t>v1.0</t>
-  </si>
-  <si>
-    <t>2017-09-12 13:51:28</t>
-  </si>
-  <si>
-    <t>通过总数</t>
-  </si>
-  <si>
-    <t>测试日期</t>
-  </si>
-  <si>
     <t>失败总数</t>
   </si>
   <si>
-    <t>WEB</t>
+    <t>2017-11-02 17:10:07</t>
   </si>
   <si>
     <t>60</t>
@@ -71,172 +71,151 @@
     <t>测试详情</t>
   </si>
   <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>实际值</t>
+  </si>
+  <si>
+    <t>用例描述</t>
+  </si>
+  <si>
+    <t>测试结果</t>
+  </si>
+  <si>
     <t>备注</t>
   </si>
   <si>
     <t>用例ID</t>
   </si>
   <si>
+    <t>登录用户UID</t>
+  </si>
+  <si>
     <t>接口名称</t>
   </si>
   <si>
+    <t>预期值</t>
+  </si>
+  <si>
     <t>请求方式</t>
   </si>
   <si>
-    <t>测试结果</t>
-  </si>
-  <si>
-    <t>实际值</t>
-  </si>
-  <si>
-    <t>URL</t>
-  </si>
-  <si>
-    <t>登录用户UID</t>
-  </si>
-  <si>
-    <t>用例描述</t>
-  </si>
-  <si>
-    <t>预期值</t>
-  </si>
-  <si>
     <t>参数</t>
   </si>
   <si>
-    <t>get</t>
-  </si>
-  <si>
-    <t>用户赠送爱心不足</t>
-  </si>
-  <si>
-    <t>送礼</t>
-  </si>
-  <si>
-    <t>{'status': False, 'message': '您剩余的仙豆数量不足！', 'code': 118}</t>
-  </si>
-  <si>
-    <t>test_gift_01</t>
-  </si>
-  <si>
-    <t>/chatnew/sendGift</t>
-  </si>
-  <si>
-    <t>{'gift': 0, 'cid': 119465, 't_count': 1, 'isbag': 0}</t>
-  </si>
-  <si>
-    <t>礼物未启用</t>
-  </si>
-  <si>
-    <t>{'message': '礼物未激活', 'status': False, 'code': 211}</t>
-  </si>
-  <si>
-    <t>test_gift_03</t>
-  </si>
-  <si>
-    <t>{'gift': 47, 'cid': 119465, 't_count': 1, 'isbag': 0}</t>
-  </si>
-  <si>
-    <t>{'status': False, 'message': '礼物未激活', 'code': 211}</t>
-  </si>
-  <si>
-    <t>礼物已启用,无特效,收礼记录,送礼记录,粉丝值,赠送语,余额,判断</t>
-  </si>
-  <si>
-    <t>{'data': {'gift': {'send_count': '1', 'gift_id': '48', 'word': 'send', 'name': '脚本测试礼物48(勿修改)', 'resource_path': 'http://img.new.huomaotv.com.cn/'}}, 'code': 200, 'status': True}</t>
-  </si>
-  <si>
-    <t>test_gift_04</t>
-  </si>
-  <si>
-    <t>二次验证失败</t>
-  </si>
-  <si>
-    <t>{'gift': 48, 'cid': 119465, 't_count': 1, 'isbag': 0}</t>
-  </si>
-  <si>
-    <t>{'data': {'channel': {'screenType': '0', 'cid': '119465', 'platType': '1', 'name': '我的直播间', 'rid': '461811'}, 'extend': {'is_fg': '0', 'is_guard': '0', 'is_zb': '0'}, 'user': {'uid': '5339', 'level': '0', 'name': 'gift1504855091', 'avatar': '/static/web/images/default_headimg/default_head_normal.jpg'}, 'gift': {'gift_id': '48', 'before_count': '0', 'name': '脚本测试礼物48(勿修改)', 'resource_path': 'http://img.new.huomaotv.com.cn/', 'send_count': '1', 'current_count': '1', 'effect': '/upload/web/images/gift/20170911103520bIlSJhta.gif', 'word': 'send', 'img': '/upload/web/images/gift/20170911103520bIlSJhta.png'}, 'fans': {'rname': '我的直播间', 'level': '7', 'name': '粉丝', 'rid': '601810', 'color': '#84d1fd', 'avatar': '/static/web/images/default_headimg/default_head_normal.jpg', 'is_live': '', 'cid': '119462', 'gcmd': 'COS', 'zb_name': 'gift1504854872', 'gname': '英魂之刃'}, 'badge': [], 'platform': '1', 'anchor': {'uid': '5385', 'name': 'gift1505185802', 'avatar': '/static/web/images/default_headimg/default_head_normal.jpg'}, 'upgrade': []}, 'code': 200, 'status': True}</t>
-  </si>
-  <si>
-    <t>连击</t>
-  </si>
-  <si>
-    <t>{'data': {'gift': {'repeat': {'img': ''}, 'before_count': '0', 'current_count': '1'}}, 'code': 200, 'status': True}</t>
-  </si>
-  <si>
-    <t>test_gift_05</t>
-  </si>
-  <si>
-    <t>{'gift': 49, 'cid': 119465, 't_count': 1, 'isbag': 0}</t>
-  </si>
-  <si>
-    <t>{'data': {'channel': {'screenType': '0', 'cid': '119465', 'platType': '1', 'name': '我的直播间', 'rid': '461811'}, 'extend': {'is_fg': '0', 'is_guard': '0', 'is_zb': '0'}, 'user': {'uid': '5340', 'level': '0', 'name': 'gift1504855093', 'avatar': '/static/web/images/default_headimg/default_head_normal.jpg'}, 'gift': {'gift_id': '49', 'before_count': '0', 'name': '脚本测试礼物49(勿修改)', 'resource_path': 'http://img.new.huomaotv.com.cn/', 'send_count': '1', 'repeat': {'img': '/upload/web/images/gift/20170911150646q3xGhLJP1.png'}, 'current_count': '1', 'effect': '/upload/web/images/gift/20170911150646q3xGhLJP.gif', 'word': '送了', 'img': '/upload/web/images/gift/20170911150646q3xGhLJP.png'}, 'fans': {'rname': '我的直播间', 'level': '6', 'name': '粉丝', 'rid': '601810', 'color': '#84d1fd', 'avatar': '/static/web/images/default_headimg/default_head_normal.jpg', 'is_live': '', 'cid': '119462', 'gcmd': 'COS', 'zb_name': 'gift1504854872', 'gname': '英魂之刃'}, 'badge': [], 'platform': '1', 'anchor': {'uid': '5385', 'name': 'gift1505185802', 'avatar': '/static/web/images/default_headimg/default_head_normal.jpg'}, 'upgrade': []}, 'code': 200, 'status': True}</t>
-  </si>
-  <si>
-    <t>霸屏特效,横幅</t>
-  </si>
-  <si>
-    <t>{'data': {'gift': {'screen_hf': {'time': '10'}, 'screen_effect': {'frame': {'time': '4', 'num': '38', 'height': '15960', 'img': ''}, 'effect': ''}}}, 'code': 200, 'status': True}</t>
-  </si>
-  <si>
-    <t>test_gift_06</t>
-  </si>
-  <si>
-    <t>{'gift': 49, 'cid': 119465, 't_count': 3, 'isbag': 0}</t>
-  </si>
-  <si>
-    <t>{'data': {'channel': {'screenType': '0', 'cid': '119465', 'platType': '1', 'name': '我的直播间', 'rid': '461811'}, 'extend': {'is_fg': '0', 'is_guard': '0', 'is_zb': '0'}, 'user': {'uid': '5341', 'level': '0', 'name': 'gift1504855094', 'avatar': '/static/web/images/default_headimg/default_head_normal.jpg'}, 'gift': {'gift_id': '49', 'before_count': '0', 'name': '脚本测试礼物49(勿修改)', 'screen_effect': {'frame': {'num': '38', 'time': '4', 'height': '15960', 'img': '/upload/web/images/gift/201709111635386eTYcilP.png'}, 'effect': '/upload/web/images/gift/201709111546056EcjO4G9.gif'}, 'resource_path': 'http://img.new.huomaotv.com.cn/', 'send_count': '3', 'screen_hf': {'time': '10', 'img': '/upload/web/images/gift/201709111546056EcjO4G9.png'}, 'current_count': '3', 'effect': '/upload/web/images/gift/20170911150646q3xGhLJP.gif', 'word': '送了', 'img': '/upload/web/images/gift/20170911150646q3xGhLJP.png'}, 'fans': {'rname': '', 'level': '0', 'name': '粉丝', 'rid': '461811', 'color': '', 'avatar': '', 'is_live': '0', 'cid': '119465', 'gcmd': '', 'zb_name': 'gift1505185802', 'gname': ''}, 'badge': [], 'platform': '1', 'anchor': {'uid': '5385', 'name': 'gift1505185802', 'avatar': '/static/web/images/default_headimg/default_head_normal.jpg'}, 'upgrade': []}, 'code': 200, 'status': True}</t>
-  </si>
-  <si>
-    <t>单房间弹幕横幅</t>
-  </si>
-  <si>
-    <t>{'data': {'gift': {'barrage': {'effect': '', 'img': ''}}}, 'code': 200, 'status': True}</t>
-  </si>
-  <si>
-    <t>test_gift_07</t>
-  </si>
-  <si>
-    <t>{'gift': 49, 'cid': 119465, 't_count': 5, 'isbag': 0}</t>
-  </si>
-  <si>
-    <t>{'data': {'channel': {'screenType': '0', 'cid': '119465', 'platType': '1', 'name': '我的直播间', 'rid': '461811'}, 'extend': {'is_fg': '0', 'is_guard': '0', 'is_zb': '0'}, 'user': {'uid': '5342', 'level': '0', 'name': 'gift1504855096', 'avatar': '/static/web/images/default_headimg/default_head_normal.jpg'}, 'gift': {'resource_path': 'http://img.new.huomaotv.com.cn/', 'name': '脚本测试礼物49(勿修改)', 'send_count': '5', 'barrage': {'effect': '/upload/web/images/gift/20170911163617T8625gri.gif', 'img': '/upload/web/images/gift/20170911163617T8625gri.png'}, 'screen_hf': {'time': '10', 'img': '/upload/web/images/gift/201709111546056EcjO4G9.png'}, 'current_count': '5', 'effect': '/upload/web/images/gift/20170911150646q3xGhLJP.gif', 'gift_id': '49', 'before_count': '0', 'word': '送了', 'screen_effect': {'frame': {'num': '38', 'time': '4', 'height': '15960', 'img': '/upload/web/images/gift/201709111635386eTYcilP.png'}, 'effect': '/upload/web/images/gift/201709111546056EcjO4G9.gif'}, 'img': '/upload/web/images/gift/20170911150646q3xGhLJP.png'}, 'fans': {'rname': '', 'level': '0', 'name': '粉丝', 'rid': '461811', 'color': '', 'avatar': '', 'is_live': '0', 'cid': '119465', 'gcmd': '', 'zb_name': 'gift1505185802', 'gname': ''}, 'badge': [], 'platform': '1', 'anchor': {'uid': '5385', 'name': 'gift1505185802', 'avatar': '/static/web/images/default_headimg/default_head_normal.jpg'}, 'upgrade': []}, 'code': 200, 'status': True}</t>
-  </si>
-  <si>
-    <t>全房间弹幕横幅, 有宝箱,有宝箱礼物</t>
-  </si>
-  <si>
-    <t>test_gift_08</t>
-  </si>
-  <si>
-    <t>{'gift': 50, 'cid': 119465, 't_count': 1, 'isbag': 0}</t>
-  </si>
-  <si>
-    <t>{'data': {'channel': {'screenType': '0', 'cid': '119465', 'platType': '1', 'name': '我的直播间', 'rid': '461811'}, 'extend': {'is_fg': '0', 'is_guard': '0', 'is_zb': '0'}, 'user': {'uid': '5343', 'level': '0', 'name': 'gift1504855097', 'avatar': '/static/web/images/default_headimg/default_head_normal.jpg'}, 'gift': {'gift_id': '50', 'before_count': '0', 'name': '脚本测试礼物50(勿修改)', 'resource_path': 'http://img.new.huomaotv.com.cn/', 'send_count': '1', 'barrage': {'effect': '/upload/web/images/gift/20170911170337xIgH3y21.gif', 'img': '/upload/web/images/gift/20170911170452JR2fd1A32.png'}, 'current_count': '1', 'effect': '/upload/web/images/gift/20170911170452JR2fd1A3.gif', 'word': '送了', 'img': '/upload/web/images/gift/20170911170452JR2fd1A3.png'}, 'fans': {'rname': '', 'level': '0', 'name': '粉丝', 'rid': '461811', 'color': '', 'avatar': '', 'is_live': '0', 'cid': '119465', 'gcmd': '', 'zb_name': 'gift1505185802', 'gname': ''}, 'badge': [], 'platform': '1', 'anchor': {'uid': '5385', 'name': 'gift1505185802', 'avatar': '/static/web/images/default_headimg/default_head_normal.jpg'}, 'upgrade': []}, 'code': 200, 'status': True}</t>
-  </si>
-  <si>
-    <t>送礼人为房主</t>
-  </si>
-  <si>
-    <t>{'message': '自己不能给自己送礼物', 'code': 219, 'status': False}</t>
-  </si>
-  <si>
-    <t>test_gift_11</t>
-  </si>
-  <si>
-    <t>{'status': False, 'message': '自己不能给自己送礼物', 'code': 219}</t>
-  </si>
-  <si>
-    <t>送礼人为房管</t>
-  </si>
-  <si>
-    <t>{'data': {'extend': {'is_fg': '1', 'is_guard': '0', 'is_zb': '0'}}, 'code': 200, 'status': True}</t>
-  </si>
-  <si>
-    <t>test_gift_12</t>
-  </si>
-  <si>
-    <t>{'data': {'channel': {'screenType': '0', 'cid': '119465', 'platType': '1', 'name': '我的直播间', 'rid': '461811'}, 'extend': {'is_fg': '1', 'is_guard': '0', 'is_zb': '0'}, 'user': {'uid': '5386', 'level': '0', 'name': 'gift1505185803', 'avatar': '/static/web/images/default_headimg/default_head_normal.jpg'}, 'gift': {'gift_id': '48', 'before_count': '1', 'name': '脚本测试礼物48(勿修改)', 'resource_path': 'http://img.new.huomaotv.com.cn/', 'send_count': '1', 'current_count': '2', 'effect': '/upload/web/images/gift/20170911103520bIlSJhta.gif', 'word': 'send', 'img': '/upload/web/images/gift/20170911103520bIlSJhta.png'}, 'fans': {'rname': '', 'level': '6', 'name': '粉丝', 'rid': '461811', 'color': '', 'avatar': '', 'is_live': '0', 'cid': '119465', 'gcmd': '', 'zb_name': 'gift1505185802', 'gname': ''}, 'badge': [], 'platform': '1', 'anchor': {'uid': '5385', 'name': 'gift1505185802', 'avatar': '/static/web/images/default_headimg/default_head_normal.jpg'}, 'upgrade': {'fans': {'type': '0', 'popup': '2'}}}, 'code': 200, 'status': True}</t>
+    <t>{'data': '测试弹幕', 'is_hotWord': '', 'guard_barrage': '', 'color_barrage': '', 'cid': 2, 'isAdminPrivateChat': ''}</t>
+  </si>
+  <si>
+    <t>发言</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>test_msg_01</t>
+  </si>
+  <si>
+    <t>/chatnew/msg</t>
+  </si>
+  <si>
+    <t>未登录发言</t>
+  </si>
+  <si>
+    <t>{'data': [], 'code': '101', 'message': '未登录', 'status': False}</t>
+  </si>
+  <si>
+    <t>{'data': '', 'is_hotWord': '', 'guard_barrage': '', 'color_barrage': '', 'cid': 119398, 'isAdminPrivateChat': ''}</t>
+  </si>
+  <si>
+    <t>test_msg_02</t>
+  </si>
+  <si>
+    <t>发言为空</t>
+  </si>
+  <si>
+    <t>{'code': 202, 'message': '消息不能为空', 'status': False}</t>
+  </si>
+  <si>
+    <t>{'data': '测试弹幕', 'is_hotWord': '', 'guard_barrage': '', 'color_barrage': '', 'cid': 119398, 'isAdminPrivateChat': ''}</t>
+  </si>
+  <si>
+    <t>type: '&lt;class 'int'&gt;' != '&lt;class 'dict'&gt;'</t>
+  </si>
+  <si>
+    <t>test_msg_03</t>
+  </si>
+  <si>
+    <t>普通用户弹幕</t>
+  </si>
+  <si>
+    <t>4998</t>
+  </si>
+  <si>
+    <t>{'data': '01234567890123456789012345678901234567890123456789', 'is_hotWord': '', 'guard_barrage': '', 'color_barrage': '', 'cid': 119398, 'isAdminPrivateChat': ''}</t>
+  </si>
+  <si>
+    <t>test_msg_04</t>
+  </si>
+  <si>
+    <t>字数限制</t>
+  </si>
+  <si>
+    <t>4999</t>
+  </si>
+  <si>
+    <t>{'data': '习近平', 'is_hotWord': '', 'guard_barrage': '', 'color_barrage': '', 'cid': 119398, 'isAdminPrivateChat': ''}</t>
+  </si>
+  <si>
+    <t>test_msg_05</t>
+  </si>
+  <si>
+    <t>敏感词</t>
+  </si>
+  <si>
+    <t>5000</t>
+  </si>
+  <si>
+    <t>test_msg_07</t>
+  </si>
+  <si>
+    <t>未绑定手机</t>
+  </si>
+  <si>
+    <t>5017</t>
+  </si>
+  <si>
+    <t>{'data': '测试弹幕', 'is_hotWord': '', 'guard_barrage': '', 'color_barrage': '', 'cid': 119399, 'isAdminPrivateChat': ''}</t>
+  </si>
+  <si>
+    <t>test_msg_08</t>
+  </si>
+  <si>
+    <t>注册时间</t>
+  </si>
+  <si>
+    <t>5002</t>
+  </si>
+  <si>
+    <t>test_msg_09</t>
+  </si>
+  <si>
+    <t>房主</t>
+  </si>
+  <si>
+    <t>4973</t>
+  </si>
+  <si>
+    <t>{'data': '测试弹幕', 'is_hotWord': '', 'guard_barrage': '', 'color_barrage': 1, 'cid': 119398, 'isAdminPrivateChat': ''}</t>
+  </si>
+  <si>
+    <t>test_msg_14</t>
+  </si>
+  <si>
+    <t>弹幕卡不足，余额不足时，发言彩色弹幕</t>
+  </si>
+  <si>
+    <t>5006</t>
   </si>
 </sst>
 </file>
@@ -376,10 +355,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>9</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -762,33 +741,33 @@
     </row>
     <row r="3" spans="1:5" ht="30" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D3" s="3">
         <v>9</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="30" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="3">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>16</v>
@@ -799,28 +778,28 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D5" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:5" ht="30" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E6" s="3"/>
     </row>
@@ -866,66 +845,63 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>25</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>28</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="J2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" t="s">
         <v>33</v>
       </c>
-      <c r="B3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="G3" t="s">
         <v>29</v>
       </c>
-      <c r="E3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3">
-        <v>5336</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>35</v>
       </c>
-      <c r="H3" t="s">
-        <v>32</v>
-      </c>
       <c r="I3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="J3" t="b">
         <v>1</v>
@@ -933,31 +909,31 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" t="s">
         <v>38</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4">
+        <v>4997</v>
+      </c>
+      <c r="G4" t="s">
         <v>36</v>
       </c>
-      <c r="C4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4">
-        <v>5338</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>39</v>
       </c>
-      <c r="H4" t="s">
-        <v>37</v>
-      </c>
       <c r="I4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J4" t="b">
         <v>1</v>
@@ -965,226 +941,226 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" t="s">
         <v>43</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5" t="s">
         <v>41</v>
-      </c>
-      <c r="C5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5">
-        <v>5339</v>
-      </c>
-      <c r="G5" t="s">
-        <v>45</v>
-      </c>
-      <c r="H5" t="s">
-        <v>42</v>
-      </c>
-      <c r="I5" t="s">
-        <v>46</v>
-      </c>
-      <c r="J5" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B6" t="s">
         <v>47</v>
       </c>
       <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" t="s">
         <v>31</v>
       </c>
-      <c r="D6" t="s">
-        <v>29</v>
-      </c>
       <c r="E6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6">
-        <v>5340</v>
+        <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="H6" t="s">
         <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="J6" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="K6" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" t="s">
         <v>52</v>
       </c>
-      <c r="C7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7">
-        <v>5341</v>
-      </c>
-      <c r="G7" t="s">
-        <v>55</v>
-      </c>
-      <c r="H7" t="s">
-        <v>53</v>
-      </c>
       <c r="I7" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="J7" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="K7" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
         <v>31</v>
       </c>
-      <c r="D8" t="s">
-        <v>29</v>
-      </c>
       <c r="E8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8">
-        <v>5342</v>
+        <v>33</v>
       </c>
       <c r="G8" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="H8" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I8" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="J8" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="K8" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B9" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s">
         <v>31</v>
       </c>
-      <c r="D9" t="s">
-        <v>29</v>
-      </c>
       <c r="E9" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9">
-        <v>5343</v>
+        <v>33</v>
       </c>
       <c r="G9" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="H9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I9" t="s">
-        <v>65</v>
-      </c>
-      <c r="J9" t="s">
-        <v>44</v>
+        <v>35</v>
+      </c>
+      <c r="J9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K9" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B10" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" t="s">
         <v>31</v>
       </c>
-      <c r="D10" t="s">
-        <v>29</v>
-      </c>
       <c r="E10" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10">
-        <v>5385</v>
+        <v>33</v>
       </c>
       <c r="G10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" t="s">
+        <v>62</v>
+      </c>
+      <c r="I10" t="s">
         <v>35</v>
       </c>
-      <c r="H10" t="s">
-        <v>67</v>
-      </c>
-      <c r="I10" t="s">
-        <v>69</v>
-      </c>
       <c r="J10" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="K10" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B11" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" t="s">
         <v>31</v>
       </c>
-      <c r="D11" t="s">
-        <v>29</v>
-      </c>
       <c r="E11" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11">
-        <v>5386</v>
+        <v>33</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="H11" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="I11" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="J11" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="K11" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
